--- a/src/main/resources/testData/excel/data1.xlsx
+++ b/src/main/resources/testData/excel/data1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{36F97A7D-D9AE-4339-B35A-8EED53ECFDAA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C1EC615B-5EF5-45EF-8825-01AC7DD76CC3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="2190" activeTab="2" xr2:uid="{1160D983-10FA-4211-9C7A-2E227E605DC9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="3360" xr2:uid="{1160D983-10FA-4211-9C7A-2E227E605DC9}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="RegistrationData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:L9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -571,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FF1FEC-11A6-4A49-A044-5DC3A7506EED}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A459198-E0F6-47CA-95A5-79EB33BA7469}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
